--- a/MVC/MVC Notes.xlsx
+++ b/MVC/MVC Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8880" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="MVC" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="421">
   <si>
     <t>ViewData</t>
   </si>
@@ -4057,6 +4057,12 @@
 If the view in the folder has Layout specified, then Layout view and _ViewStart are both executed.
 _ViewStart is convenient place to set the Layout property and avoid specifing Layout in the actual view.
 Using _ViewStart we can specify which Layout to be used (Based on browser type, or controller etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Url.Content("~/path/file.htm")</t>
+  </si>
+  <si>
+    <t>Resolves URL based on the relative path of the resource</t>
   </si>
 </sst>
 </file>
@@ -4482,11 +4488,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4795,10 +4801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E216"/>
+  <dimension ref="A2:E219"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5010,925 +5016,939 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B39" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>209</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>340</v>
-      </c>
-    </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>393</v>
-      </c>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="40" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="41"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="42"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>116</v>
+      <c r="A65" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>388</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>388</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="36"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="36"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="3" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="36"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="36"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B80" t="s">
         <v>32</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D80" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B81" t="s">
         <v>33</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C81" t="s">
         <v>34</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D81" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>113</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="19" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B93" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B96" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
+    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="B97" s="15" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B95" s="38" t="s">
+      <c r="B98" s="38" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="20" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="11"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>154</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B110" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="8"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="8"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>48</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B115" t="s">
         <v>49</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C116" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
         <v>51</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>52</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C118" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>391</v>
-      </c>
-      <c r="B117" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B118" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B119" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>53</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>122</v>
+        <v>391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>118</v>
+      <c r="A122" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>119</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>138</v>
+        <v>53</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>139</v>
+      <c r="A124" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>118</v>
+      </c>
+      <c r="B125" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>287</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B130" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="22" t="s">
+    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="22" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="31" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="31" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B136" s="2" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>215</v>
-      </c>
-      <c r="B136" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>215</v>
+      </c>
+      <c r="B139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>217</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B140" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>82</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B141" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="16" t="s">
+    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B144" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>130</v>
-      </c>
-      <c r="B145" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="21" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="B148" s="18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>133</v>
+      <c r="B149" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>384</v>
-      </c>
-      <c r="B150" t="s">
-        <v>383</v>
+        <v>131</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>384</v>
+      </c>
+      <c r="B153" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="16" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="20" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="20" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B160" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>124</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>55</v>
+      <c r="B163" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B167" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>56</v>
-      </c>
-      <c r="B165" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>57</v>
-      </c>
-      <c r="B166" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B168" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>58</v>
+      </c>
+      <c r="B171" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>59</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B172" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>60</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B173" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B175" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B178" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>68</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B182" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="16" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="16" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>190</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B189" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="12" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B190" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="14" t="s">
+    <row r="191" spans="1:2" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="A191" s="14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="16" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="13"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B193" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>195</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B194" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>197</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B195" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>78</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B196" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>120</v>
-      </c>
-      <c r="B199" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>126</v>
+        <v>120</v>
+      </c>
+      <c r="B202" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>142</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="34" t="s">
-        <v>143</v>
+      <c r="A206" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>290</v>
-      </c>
-      <c r="B208" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="B209" t="s">
-        <v>291</v>
+      <c r="A209" s="34" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>352</v>
-      </c>
-      <c r="B210" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>355</v>
+        <v>290</v>
+      </c>
+      <c r="B211" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>293</v>
+      <c r="A212" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="B212" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>293</v>
+      </c>
+      <c r="B215" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>295</v>
+      </c>
+      <c r="B216" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="27"/>
+    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B58:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7043,7 +7063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -7054,7 +7074,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7078,7 +7098,7 @@
       <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>417</v>
       </c>
       <c r="B5" s="38"/>

--- a/MVC/MVC Notes.xlsx
+++ b/MVC/MVC Notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8880"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8880" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="MVC" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="Authentication" sheetId="6" r:id="rId6"/>
     <sheet name="Attributes" sheetId="7" r:id="rId7"/>
     <sheet name="Routing" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
+    <sheet name="Layout Vs Partial" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="428">
   <si>
     <t>ViewData</t>
   </si>
@@ -1292,9 +1292,6 @@
       </rPr>
       <t xml:space="preserve"> extension</t>
     </r>
-  </si>
-  <si>
-    <t>Sahred folder is used store Master pages/Layout pages and partial views</t>
   </si>
   <si>
     <t>url.Action("action method", "controller name", parmeteres)</t>
@@ -1454,9 +1451,6 @@
     <t xml:space="preserve"> - Page_Error() event</t>
   </si>
   <si>
-    <t>Custom Errors</t>
-  </si>
-  <si>
     <t>Action Method level</t>
   </si>
   <si>
@@ -3606,10 +3600,6 @@
     <t xml:space="preserve"> @using (Html.BeginForm()) {…….}</t>
   </si>
   <si>
-    <t>Any unhandled error redirects to the default error view that is 
-under ~/Views/Shared/Error.cshtml</t>
-  </si>
-  <si>
     <t xml:space="preserve"> @Html.AntiForgeryToken()</t>
   </si>
   <si>
@@ -3829,86 +3819,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">A partial view can also be called from view thru </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>@Html.Action("action method", "Controller name)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. This will place the view returned by "action method" 
-in palce where @Html.Action is specifed. In order for this view not to apply </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> property set in viewstart, have the "action method" return </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PartialViewResult</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> instead of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ActionResult</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Called from the view using </t>
     </r>
     <r>
@@ -4041,9 +3951,6 @@
     <t>Executes the child action in the controller name and renders the the HTML of the  view into output stream (return type is Void)</t>
   </si>
   <si>
-    <t>Renderes HTML of partial view into output stream</t>
-  </si>
-  <si>
     <t xml:space="preserve">    @Html.RenderPartial("_Employee", item)</t>
   </si>
   <si>
@@ -4053,16 +3960,206 @@
     <t>Layout Views</t>
   </si>
   <si>
-    <t>_ViewStart.cshtml when palced at folder level in Views applies to all views for that folder and is executed for all views.
+    <t xml:space="preserve"> @Url.Content("~/path/file.htm")</t>
+  </si>
+  <si>
+    <t>Resolves URL based on the relative path of the resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @Ajax.ActionLink("display text", "action", "controller", new AjaxOptions {….}</t>
+  </si>
+  <si>
+    <t>Calls the action method asynhronosly using ajax</t>
+  </si>
+  <si>
+    <t>Needs a view as 'Error' in shared folder to show when error occurs.
+Any unhandled error redirects to the default error view that is 
+under ~/Views/Shared/Error.cshtml</t>
+  </si>
+  <si>
+    <t>HTTP 404 (Not found error)</t>
+  </si>
+  <si>
+    <t>&lt;customErrors mode="On"&gt;
+      &lt;error statusCode="404" redirect="~/Error/NotFound"
+&lt;/customErrors&gt;</t>
+  </si>
+  <si>
+    <t>Error directed to 'NotFound' view under 'Error' controller
+(~/Views/Error/NotFound.cshtml)</t>
+  </si>
+  <si>
+    <t>_ViewStart.cshtml when placed at folder level in Views applies to all views for that folder and is executed for all views.
 If the view in the folder has Layout specified, then Layout view and _ViewStart are both executed.
 _ViewStart is convenient place to set the Layout property and avoid specifing Layout in the actual view.
 Using _ViewStart we can specify which Layout to be used (Based on browser type, or controller etc)</t>
   </si>
   <si>
-    <t xml:space="preserve"> @Url.Content("~/path/file.htm")</t>
-  </si>
-  <si>
-    <t>Resolves URL based on the relative path of the resource</t>
+    <r>
+      <t xml:space="preserve">A partial view can also be called from view thru </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Html.Action("action method", "Controller name)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This will place the view returned by "action method" 
+in palce where @Html.Action is specifed. In order for this view not to apply </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> property set in viewstart, have the "action method" return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PartialViewResult</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ActionResult.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Action methods called by Html.Action() method are usually decorated with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ChildActionOnly]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> attribute, this is to prevent the method to be accessed directly from URL</t>
+    </r>
+  </si>
+  <si>
+    <t>ChildActionOnly Vs NonAction</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChildActionOnly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be called only from another action or Html.Action() but not directly buy URL/routing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NonAction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will make the method behave like private</t>
+    </r>
+  </si>
+  <si>
+    <t>Renderes HTML of partial view and writes HTML to output stream (Return type void)</t>
+  </si>
+  <si>
+    <t>Shared folder is used store Master pages/Layout pages and partial views</t>
   </si>
 </sst>
 </file>
@@ -4407,7 +4504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4492,7 +4589,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4801,10 +4904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E219"/>
+  <dimension ref="A2:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4879,7 +4982,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B13" s="32"/>
     </row>
@@ -4893,7 +4996,7 @@
         <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4919,12 +5022,12 @@
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -4932,7 +5035,7 @@
         <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4970,13 +5073,13 @@
         <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -4986,33 +5089,33 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5025,10 +5128,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B39" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5036,919 +5139,927 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <v>415</v>
+      </c>
+      <c r="B41" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B42" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>99</v>
       </c>
-      <c r="B59" s="42"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="43"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+    <row r="64" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="36" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>388</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="36"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="36"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="36"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="36"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="19" t="s">
+    <row r="82" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" t="s">
         <v>32</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D82" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>110</v>
-      </c>
-      <c r="B81" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" t="s">
-        <v>34</v>
-      </c>
-      <c r="D81" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>113</v>
-      </c>
-      <c r="B82" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="B96" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B98" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="38" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="B100" s="38" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>154</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B112" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="8"/>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="8"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>48</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" t="s">
         <v>49</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C117" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="118" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>50</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C118" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
         <v>51</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
         <v>52</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C120" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>391</v>
-      </c>
-      <c r="B120" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="9" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>388</v>
+      </c>
+      <c r="B122" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B122" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>53</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
+        <v>389</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" t="s">
-        <v>119</v>
+        <v>53</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>138</v>
+      <c r="A126" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>139</v>
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="B130" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B132" s="22" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="16" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>83</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>81</v>
-      </c>
-      <c r="B138" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>215</v>
-      </c>
-      <c r="B139" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>214</v>
+      </c>
+      <c r="B141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>216</v>
+      </c>
+      <c r="B142" t="s">
         <v>217</v>
       </c>
-      <c r="B140" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    </row>
+    <row r="143" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>82</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B143" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="s">
+    <row r="146" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B146" s="2" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="150" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>130</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B150" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="21" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>384</v>
-      </c>
-      <c r="B153" t="s">
-        <v>383</v>
+        <v>132</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>382</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>381</v>
+      </c>
+      <c r="B155" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="16" t="s">
+      <c r="A156" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="16" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="20" t="s">
-        <v>378</v>
-      </c>
-    </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="20" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>165</v>
-      </c>
-      <c r="B167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>56</v>
-      </c>
-      <c r="B168" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B171" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>59</v>
-      </c>
-      <c r="B172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>58</v>
+      </c>
+      <c r="B173" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>60</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B175" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B180" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>68</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B184" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="16" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="16" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B191" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="12" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="16" t="s">
+    <row r="193" spans="1:2" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B195" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>195</v>
-      </c>
-      <c r="B194" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>197</v>
-      </c>
-      <c r="B195" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>78</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+    <row r="200" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>120</v>
-      </c>
-      <c r="B202" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>125</v>
+        <v>120</v>
+      </c>
+      <c r="B204" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="34" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>290</v>
-      </c>
-      <c r="B211" t="s">
-        <v>298</v>
-      </c>
-    </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="B212" t="s">
-        <v>291</v>
+      <c r="A212" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="B213" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>355</v>
+      <c r="A214" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B214" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>350</v>
       </c>
       <c r="B215" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>295</v>
-      </c>
-      <c r="B216" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="27"/>
+        <v>291</v>
+      </c>
+      <c r="B217" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>293</v>
+      </c>
+      <c r="B218" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6087,10 +6198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,106 +6209,118 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.140625" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>224</v>
       </c>
-      <c r="C3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>231</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="33" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="35"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" t="s">
-        <v>229</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="C14" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>230</v>
-      </c>
-      <c r="C17" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="21"/>
+      <c r="C19" s="33"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="35"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -6210,7 +6333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6223,197 +6346,197 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="29.25" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6437,42 +6560,42 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -6490,7 +6613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -6506,232 +6629,232 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D25" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C26" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C31" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D32" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -6739,49 +6862,49 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -6794,7 +6917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -6871,7 +6994,7 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -6891,12 +7014,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -6914,20 +7037,20 @@
         <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -6952,23 +7075,23 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B37" s="30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -6978,15 +7101,15 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7015,39 +7138,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="26" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -7061,10 +7184,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7080,18 +7203,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>404</v>
       </c>
-      <c r="B2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>407</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>408</v>
+      <c r="B3" s="41" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7099,28 +7222,41 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>405</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>418</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>423</v>
+      </c>
+      <c r="B11" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>